--- a/va_facility_data_2025-02-20/Naples VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Naples%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Naples VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Naples%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8228c9088951420d9e0884c70a8f4e1d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5ade6e9aa905406c8149bcaa0e803e52"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R994f53b362164f79ba769395dc47f201"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rbaef6119872d4cb3943253d4fb64e7a2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R249358a4ee624847a980b64eeb6a0178"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfc7bae93f88644518afbe756edc5497a"/>
   </x:sheets>
 </x:workbook>
 </file>
